--- a/Tables/PERMANOVA_PCO_den_fish.xlsx
+++ b/Tables/PERMANOVA_PCO_den_fish.xlsx
@@ -118,19 +118,19 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004208338108133918</v>
+        <v>0.5437913689595455</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004208338108133918</v>
+        <v>0.5437913689595455</v>
       </c>
       <c r="E2" t="n">
-        <v>0.030753792275774395</v>
+        <v>2.2314014367748425</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1059805196596267E-4</v>
+        <v>0.015053500237779254</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9891</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="3">
@@ -141,16 +141,16 @@
         <v>146.0</v>
       </c>
       <c r="C3" t="n">
-        <v>19.97858860065025</v>
+        <v>35.580124024140254</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13683964794965925</v>
+        <v>0.243699479617399</v>
       </c>
       <c r="E3" t="e">
         <v>#N/A</v>
       </c>
       <c r="F3" t="n">
-        <v>0.999789401948034</v>
+        <v>0.9849464997622207</v>
       </c>
       <c r="G3" t="e">
         <v>#N/A</v>
@@ -164,7 +164,7 @@
         <v>147.0</v>
       </c>
       <c r="C4" t="n">
-        <v>19.982796938758387</v>
+        <v>36.1239153930998</v>
       </c>
       <c r="D4" t="e">
         <v>#N/A</v>

--- a/Tables/PERMANOVA_PCO_den_fish.xlsx
+++ b/Tables/PERMANOVA_PCO_den_fish.xlsx
@@ -386,19 +386,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.543791368959545</v>
+        <v>0.136116072538749</v>
       </c>
       <c r="C2" t="n">
-        <v>0.543791368959545</v>
+        <v>0.136116072538749</v>
       </c>
       <c r="D2" t="n">
-        <v>2.23140143677484</v>
+        <v>0.775173933911264</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0150535002377793</v>
+        <v>0.00528136954727986</v>
       </c>
       <c r="F2" t="n">
-        <v>0.035</v>
+        <v>0.5961</v>
       </c>
     </row>
     <row r="3">
@@ -406,14 +406,14 @@
         <v>146</v>
       </c>
       <c r="B3" t="n">
-        <v>35.5801240241403</v>
+        <v>25.6367580503969</v>
       </c>
       <c r="C3" t="n">
-        <v>0.243699479617399</v>
+        <v>0.175594233221896</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.984946499762221</v>
+        <v>0.99471863045272</v>
       </c>
       <c r="F3"/>
     </row>
@@ -422,7 +422,7 @@
         <v>147</v>
       </c>
       <c r="B4" t="n">
-        <v>36.1239153930998</v>
+        <v>25.7728741229356</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
